--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N2">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O2">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P2">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q2">
-        <v>7.814495618048445</v>
+        <v>4.779993340976111</v>
       </c>
       <c r="R2">
-        <v>70.33046056243602</v>
+        <v>43.019940068785</v>
       </c>
       <c r="S2">
-        <v>0.009632239874974014</v>
+        <v>0.003621853564426552</v>
       </c>
       <c r="T2">
-        <v>0.009632239874974014</v>
+        <v>0.003621853564426552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P3">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q3">
-        <v>0.8618079554293334</v>
+        <v>1.432604661513333</v>
       </c>
       <c r="R3">
-        <v>7.756271598864001</v>
+        <v>12.89344195362</v>
       </c>
       <c r="S3">
-        <v>0.001062274695462602</v>
+        <v>0.001085500319683833</v>
       </c>
       <c r="T3">
-        <v>0.001062274695462602</v>
+        <v>0.001085500319683833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N4">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P4">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q4">
-        <v>11.19127736731867</v>
+        <v>27.72952376094667</v>
       </c>
       <c r="R4">
-        <v>100.721496305868</v>
+        <v>249.56571384852</v>
       </c>
       <c r="S4">
-        <v>0.0137945010629236</v>
+        <v>0.0210109653527104</v>
       </c>
       <c r="T4">
-        <v>0.0137945010629236</v>
+        <v>0.02101096535271039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I5">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J5">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N5">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O5">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P5">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q5">
-        <v>209.1322892332721</v>
+        <v>76.95406571358809</v>
       </c>
       <c r="R5">
-        <v>1882.190603099449</v>
+        <v>692.5865914222929</v>
       </c>
       <c r="S5">
-        <v>0.2577789372412998</v>
+        <v>0.05830894256956395</v>
       </c>
       <c r="T5">
-        <v>0.2577789372412998</v>
+        <v>0.05830894256956396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I6">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J6">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P6">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q6">
         <v>23.06378804309733</v>
@@ -827,10 +827,10 @@
         <v>207.574092387876</v>
       </c>
       <c r="S6">
-        <v>0.02842869837223751</v>
+        <v>0.01747568604687896</v>
       </c>
       <c r="T6">
-        <v>0.02842869837223751</v>
+        <v>0.01747568604687896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N7">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P7">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q7">
-        <v>299.5020497377097</v>
+        <v>446.4231310562107</v>
       </c>
       <c r="R7">
-        <v>2695.518447639387</v>
+        <v>4017.808179505896</v>
       </c>
       <c r="S7">
-        <v>0.369169774624619</v>
+        <v>0.3382597198614966</v>
       </c>
       <c r="T7">
-        <v>0.369169774624619</v>
+        <v>0.3382597198614966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H8">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I8">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J8">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N8">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O8">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P8">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q8">
-        <v>45.01895372065623</v>
+        <v>61.26448480604743</v>
       </c>
       <c r="R8">
-        <v>405.1705834859061</v>
+        <v>551.3803632544269</v>
       </c>
       <c r="S8">
-        <v>0.05549089568316991</v>
+        <v>0.04642077443192158</v>
       </c>
       <c r="T8">
-        <v>0.05549089568316991</v>
+        <v>0.04642077443192158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H9">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I9">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J9">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P9">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q9">
-        <v>4.964836421682667</v>
+        <v>18.36148719412934</v>
       </c>
       <c r="R9">
-        <v>44.68352779514401</v>
+        <v>165.253384747164</v>
       </c>
       <c r="S9">
-        <v>0.006119716190409491</v>
+        <v>0.01391270093875266</v>
       </c>
       <c r="T9">
-        <v>0.006119716190409491</v>
+        <v>0.01391270093875266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H10">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I10">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J10">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N10">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P10">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q10">
-        <v>64.47243974527534</v>
+        <v>355.4053041388827</v>
       </c>
       <c r="R10">
-        <v>580.251957707478</v>
+        <v>3198.647737249944</v>
       </c>
       <c r="S10">
-        <v>0.07946949301718205</v>
+        <v>0.2692945106380951</v>
       </c>
       <c r="T10">
-        <v>0.07946949301718205</v>
+        <v>0.2692945106380951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H11">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I11">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J11">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N11">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O11">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P11">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q11">
-        <v>22.214933979298</v>
+        <v>2.395730839184</v>
       </c>
       <c r="R11">
-        <v>199.934405813682</v>
+        <v>21.561577552656</v>
       </c>
       <c r="S11">
-        <v>0.02738239079705922</v>
+        <v>0.001815271624946088</v>
       </c>
       <c r="T11">
-        <v>0.02738239079705922</v>
+        <v>0.001815271624946088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H12">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I12">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J12">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.130476</v>
       </c>
       <c r="O12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P12">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q12">
-        <v>2.449935065352</v>
+        <v>0.7180209098879999</v>
       </c>
       <c r="R12">
-        <v>22.049415588168</v>
+        <v>6.462188188992</v>
       </c>
       <c r="S12">
-        <v>0.003019818985255755</v>
+        <v>0.0005440523461648993</v>
       </c>
       <c r="T12">
-        <v>0.003019818985255756</v>
+        <v>0.0005440523461648994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H13">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I13">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J13">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N13">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P13">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q13">
-        <v>31.814399803974</v>
+        <v>13.898026731648</v>
       </c>
       <c r="R13">
-        <v>286.329598235766</v>
+        <v>125.082240584832</v>
       </c>
       <c r="S13">
-        <v>0.03921480609477054</v>
+        <v>0.01053068782021267</v>
       </c>
       <c r="T13">
-        <v>0.03921480609477054</v>
+        <v>0.01053068782021267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H14">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I14">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J14">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N14">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O14">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P14">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q14">
-        <v>18.22785735398145</v>
+        <v>6.475138202663887</v>
       </c>
       <c r="R14">
-        <v>164.050716185833</v>
+        <v>58.27624382397499</v>
       </c>
       <c r="S14">
-        <v>0.02246787291490038</v>
+        <v>0.004906283483374825</v>
       </c>
       <c r="T14">
-        <v>0.02246787291490038</v>
+        <v>0.004906283483374825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H15">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I15">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J15">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.130476</v>
       </c>
       <c r="O15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P15">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q15">
-        <v>2.010227306521333</v>
+        <v>1.940653994966667</v>
       </c>
       <c r="R15">
-        <v>18.092045758692</v>
+        <v>17.4658859547</v>
       </c>
       <c r="S15">
-        <v>0.002477829992624914</v>
+        <v>0.001470454891377176</v>
       </c>
       <c r="T15">
-        <v>0.002477829992624914</v>
+        <v>0.001470454891377176</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H16">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I16">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J16">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N16">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P16">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q16">
-        <v>26.10443686079767</v>
+        <v>37.56333656513333</v>
       </c>
       <c r="R16">
-        <v>234.939931747179</v>
+        <v>338.0700290862</v>
       </c>
       <c r="S16">
-        <v>0.03217663812666021</v>
+        <v>0.02846215354818887</v>
       </c>
       <c r="T16">
-        <v>0.03217663812666021</v>
+        <v>0.02846215354818887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H17">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I17">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J17">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3943663333333334</v>
+        <v>0.1451143333333333</v>
       </c>
       <c r="N17">
-        <v>1.183099</v>
+        <v>0.435343</v>
       </c>
       <c r="O17">
-        <v>0.393328993667368</v>
+        <v>0.140827770705994</v>
       </c>
       <c r="P17">
-        <v>0.393328993667368</v>
+        <v>0.1408277707059941</v>
       </c>
       <c r="Q17">
-        <v>16.69354161300978</v>
+        <v>33.99006325384466</v>
       </c>
       <c r="R17">
-        <v>150.241874517088</v>
+        <v>305.9105692846019</v>
       </c>
       <c r="S17">
-        <v>0.02057665715596463</v>
+        <v>0.02575464503176104</v>
       </c>
       <c r="T17">
-        <v>0.02057665715596463</v>
+        <v>0.02575464503176104</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H18">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I18">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J18">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.130476</v>
       </c>
       <c r="O18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="P18">
-        <v>0.04337759881273123</v>
+        <v>0.0422072807203407</v>
       </c>
       <c r="Q18">
-        <v>1.841017983701333</v>
+        <v>10.187111066696</v>
       </c>
       <c r="R18">
-        <v>16.569161853312</v>
+        <v>91.683999600264</v>
       </c>
       <c r="S18">
-        <v>0.00226926057674095</v>
+        <v>0.007718886177483166</v>
       </c>
       <c r="T18">
-        <v>0.00226926057674095</v>
+        <v>0.007718886177483167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H19">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I19">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J19">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.564779</v>
+        <v>0.841832</v>
       </c>
       <c r="N19">
-        <v>1.694337</v>
+        <v>2.525496</v>
       </c>
       <c r="O19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="P19">
-        <v>0.5632934075199009</v>
+        <v>0.8169649485736653</v>
       </c>
       <c r="Q19">
-        <v>23.90711615508267</v>
+        <v>197.181920433616</v>
       </c>
       <c r="R19">
-        <v>215.164045395744</v>
+        <v>1774.637283902544</v>
       </c>
       <c r="S19">
-        <v>0.02946819459374545</v>
+        <v>0.1494069113529617</v>
       </c>
       <c r="T19">
-        <v>0.02946819459374545</v>
+        <v>0.1494069113529617</v>
       </c>
     </row>
   </sheetData>
